--- a/data/cases.xlsx
+++ b/data/cases.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="29400" windowHeight="12660" tabRatio="600" firstSheet="0" activeTab="6" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="6" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12660" windowWidth="29400"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" state="visible" r:id="rId1"/>
@@ -515,225 +515,225 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="43">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="44">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="41">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="42">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="3" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="4" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="4" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="5" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="9" fillId="0" fontId="15" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="10" fillId="0" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="6" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="18" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="8" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="9" fontId="20" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="10" fontId="21" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="11" fontId="21" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="12" fontId="20" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="13" fontId="20" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="14" fontId="21" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="15" fontId="21" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="16" fontId="20" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="17" fontId="20" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="18" fontId="21" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="19" fontId="21" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="20" fontId="20" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="21" fontId="20" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="22" fontId="21" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="23" fontId="21" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="24" fontId="20" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="25" fontId="20" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="26" fontId="21" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="27" fontId="21" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="28" fontId="20" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="29" fontId="20" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="30" fontId="21" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="31" fontId="21" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="32" fontId="20" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="11">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="2" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle builtinId="0" name="常规" xfId="0"/>
+    <cellStyle builtinId="3" name="千位分隔" xfId="1"/>
+    <cellStyle builtinId="4" name="货币" xfId="2"/>
+    <cellStyle builtinId="5" name="百分比" xfId="3"/>
+    <cellStyle builtinId="6" name="千位分隔[0]" xfId="4"/>
+    <cellStyle builtinId="7" name="货币[0]" xfId="5"/>
+    <cellStyle builtinId="8" name="超链接" xfId="6"/>
+    <cellStyle builtinId="9" name="已访问的超链接" xfId="7"/>
+    <cellStyle builtinId="10" name="注释" xfId="8"/>
+    <cellStyle builtinId="11" name="警告文本" xfId="9"/>
+    <cellStyle builtinId="15" name="标题" xfId="10"/>
+    <cellStyle builtinId="53" name="解释性文本" xfId="11"/>
+    <cellStyle builtinId="16" name="标题 1" xfId="12"/>
+    <cellStyle builtinId="17" name="标题 2" xfId="13"/>
+    <cellStyle builtinId="18" name="标题 3" xfId="14"/>
+    <cellStyle builtinId="19" name="标题 4" xfId="15"/>
+    <cellStyle builtinId="20" name="输入" xfId="16"/>
+    <cellStyle builtinId="21" name="输出" xfId="17"/>
+    <cellStyle builtinId="22" name="计算" xfId="18"/>
+    <cellStyle builtinId="23" name="检查单元格" xfId="19"/>
+    <cellStyle builtinId="24" name="链接单元格" xfId="20"/>
+    <cellStyle builtinId="25" name="汇总" xfId="21"/>
+    <cellStyle builtinId="26" name="好" xfId="22"/>
+    <cellStyle builtinId="27" name="差" xfId="23"/>
+    <cellStyle builtinId="28" name="适中" xfId="24"/>
+    <cellStyle builtinId="29" name="强调文字颜色 1" xfId="25"/>
+    <cellStyle builtinId="30" name="20% - 强调文字颜色 1" xfId="26"/>
+    <cellStyle builtinId="31" name="40% - 强调文字颜色 1" xfId="27"/>
+    <cellStyle builtinId="32" name="60% - 强调文字颜色 1" xfId="28"/>
+    <cellStyle builtinId="33" name="强调文字颜色 2" xfId="29"/>
+    <cellStyle builtinId="34" name="20% - 强调文字颜色 2" xfId="30"/>
+    <cellStyle builtinId="35" name="40% - 强调文字颜色 2" xfId="31"/>
+    <cellStyle builtinId="36" name="60% - 强调文字颜色 2" xfId="32"/>
+    <cellStyle builtinId="37" name="强调文字颜色 3" xfId="33"/>
+    <cellStyle builtinId="38" name="20% - 强调文字颜色 3" xfId="34"/>
+    <cellStyle builtinId="39" name="40% - 强调文字颜色 3" xfId="35"/>
+    <cellStyle builtinId="40" name="60% - 强调文字颜色 3" xfId="36"/>
+    <cellStyle builtinId="41" name="强调文字颜色 4" xfId="37"/>
+    <cellStyle builtinId="42" name="20% - 强调文字颜色 4" xfId="38"/>
+    <cellStyle builtinId="43" name="40% - 强调文字颜色 4" xfId="39"/>
+    <cellStyle builtinId="44" name="60% - 强调文字颜色 4" xfId="40"/>
+    <cellStyle builtinId="45" name="强调文字颜色 5" xfId="41"/>
+    <cellStyle builtinId="46" name="20% - 强调文字颜色 5" xfId="42"/>
+    <cellStyle builtinId="47" name="40% - 强调文字颜色 5" xfId="43"/>
+    <cellStyle builtinId="48" name="60% - 强调文字颜色 5" xfId="44"/>
+    <cellStyle builtinId="49" name="强调文字颜色 6" xfId="45"/>
+    <cellStyle builtinId="50" name="20% - 强调文字颜色 6" xfId="46"/>
+    <cellStyle builtinId="51" name="40% - 强调文字颜色 6" xfId="47"/>
+    <cellStyle builtinId="52" name="60% - 强调文字颜色 6" xfId="48"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -1074,9 +1074,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="5"/>
   <cols>
-    <col width="13.2232142857143" customWidth="1" min="2" max="2"/>
-    <col width="27.7767857142857" customWidth="1" min="3" max="3"/>
-    <col width="47.2232142857143" customWidth="1" min="4" max="4"/>
+    <col customWidth="1" max="2" min="2" width="13.2232142857143"/>
+    <col customWidth="1" max="3" min="3" width="27.7767857142857"/>
+    <col customWidth="1" max="4" min="4" width="47.2232142857143"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1232,7 +1232,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -1250,11 +1250,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.892857142857141" defaultRowHeight="16.8"/>
   <cols>
-    <col width="31.8482142857143" customWidth="1" min="2" max="2"/>
-    <col width="16.3660714285714" customWidth="1" min="3" max="3"/>
-    <col width="15.2232142857143" customWidth="1" min="4" max="4"/>
-    <col width="74.5446428571429" customWidth="1" min="5" max="5"/>
-    <col width="50.1071428571429" customWidth="1" min="6" max="6"/>
+    <col customWidth="1" max="2" min="2" width="31.8482142857143"/>
+    <col customWidth="1" max="3" min="3" width="16.3660714285714"/>
+    <col customWidth="1" max="4" min="4" width="15.2232142857143"/>
+    <col customWidth="1" max="5" min="5" width="74.5446428571429"/>
+    <col customWidth="1" max="6" min="6" width="50.1071428571429"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1750,7 +1750,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -1768,14 +1768,14 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.892857142857141" defaultRowHeight="16.8"/>
   <cols>
-    <col width="22.7589285714286" customWidth="1" min="2" max="2"/>
-    <col width="21.1339285714286" customWidth="1" min="4" max="4"/>
-    <col width="45.2321428571429" customWidth="1" min="5" max="5"/>
-    <col width="60.1160714285714" customWidth="1" min="6" max="6"/>
-    <col width="60.8660714285714" customWidth="1" min="7" max="7"/>
+    <col customWidth="1" max="2" min="2" width="22.7589285714286"/>
+    <col customWidth="1" max="4" min="4" width="21.1339285714286"/>
+    <col customWidth="1" max="5" min="5" width="45.2321428571429"/>
+    <col customWidth="1" max="6" min="6" width="60.1160714285714"/>
+    <col customWidth="1" max="7" min="7" width="60.8660714285714"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17" customHeight="1">
+    <row customHeight="1" ht="17" r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>case_id</t>
@@ -2425,7 +2425,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -2443,12 +2443,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.892857142857141" defaultRowHeight="16.8"/>
   <cols>
-    <col width="9.97321428571429" customWidth="1" min="2" max="2"/>
-    <col width="19.0446428571429" customWidth="1" min="3" max="3"/>
-    <col width="19.1875" customWidth="1" min="5" max="5"/>
-    <col width="48.3660714285714" customWidth="1" min="6" max="6"/>
-    <col width="55.9553571428571" customWidth="1" min="7" max="7"/>
-    <col width="13.8303571428571" customWidth="1" min="8" max="8"/>
+    <col customWidth="1" max="2" min="2" width="9.97321428571429"/>
+    <col customWidth="1" max="3" min="3" width="19.0446428571429"/>
+    <col customWidth="1" max="5" min="5" width="19.1875"/>
+    <col customWidth="1" max="6" min="6" width="48.3660714285714"/>
+    <col customWidth="1" max="7" min="7" width="55.9553571428571"/>
+    <col customWidth="1" max="8" min="8" width="13.8303571428571"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3119,7 +3119,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -3137,11 +3137,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9.142857142857141" defaultRowHeight="16.8"/>
   <cols>
-    <col width="35.1160714285714" customWidth="1" min="3" max="3"/>
-    <col width="14.8839285714286" customWidth="1" min="5" max="5"/>
-    <col width="74.3928571428571" customWidth="1" min="6" max="6"/>
-    <col width="44.1964285714286" customWidth="1" min="7" max="7"/>
-    <col width="48.5" customWidth="1" min="9" max="9"/>
+    <col customWidth="1" max="3" min="3" width="35.1160714285714"/>
+    <col customWidth="1" max="5" min="5" width="14.8839285714286"/>
+    <col customWidth="1" max="6" min="6" width="74.3928571428571"/>
+    <col customWidth="1" max="7" min="7" width="44.1964285714286"/>
+    <col customWidth="1" max="9" min="9" width="48.5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3191,7 +3191,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="34" customHeight="1">
+    <row customHeight="1" ht="34" r="2">
       <c r="A2" t="n">
         <v>1</v>
       </c>
@@ -3236,7 +3236,7 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="34" customHeight="1">
+    <row customHeight="1" ht="34" r="3">
       <c r="A3" t="n">
         <v>2</v>
       </c>
@@ -3276,7 +3276,7 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="34" customHeight="1">
+    <row customHeight="1" ht="34" r="4">
       <c r="A4" t="n">
         <v>3</v>
       </c>
@@ -3316,7 +3316,7 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="34" customHeight="1">
+    <row customHeight="1" ht="34" r="5">
       <c r="A5" t="n">
         <v>4</v>
       </c>
@@ -3356,7 +3356,7 @@
         </is>
       </c>
     </row>
-    <row r="6" ht="34" customHeight="1">
+    <row customHeight="1" ht="34" r="6">
       <c r="A6" t="n">
         <v>5</v>
       </c>
@@ -3396,7 +3396,7 @@
         </is>
       </c>
     </row>
-    <row r="7" ht="34" customHeight="1">
+    <row customHeight="1" ht="34" r="7">
       <c r="A7" t="n">
         <v>6</v>
       </c>
@@ -3436,7 +3436,7 @@
         </is>
       </c>
     </row>
-    <row r="8" ht="34" customHeight="1">
+    <row customHeight="1" ht="34" r="8">
       <c r="A8" t="n">
         <v>7</v>
       </c>
@@ -3476,7 +3476,7 @@
         </is>
       </c>
     </row>
-    <row r="9" ht="34" customHeight="1">
+    <row customHeight="1" ht="34" r="9">
       <c r="A9" t="n">
         <v>8</v>
       </c>
@@ -3516,7 +3516,7 @@
         </is>
       </c>
     </row>
-    <row r="10" ht="34" customHeight="1">
+    <row customHeight="1" ht="34" r="10">
       <c r="A10" t="n">
         <v>9</v>
       </c>
@@ -3556,7 +3556,7 @@
         </is>
       </c>
     </row>
-    <row r="11" ht="34" customHeight="1">
+    <row customHeight="1" ht="34" r="11">
       <c r="A11" t="n">
         <v>10</v>
       </c>
@@ -3596,7 +3596,7 @@
         </is>
       </c>
     </row>
-    <row r="12" ht="34" customHeight="1">
+    <row customHeight="1" ht="34" r="12">
       <c r="A12" t="n">
         <v>11</v>
       </c>
@@ -3637,7 +3637,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -3655,11 +3655,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9.142857142857141" defaultRowHeight="16.8" outlineLevelRow="6"/>
   <cols>
-    <col width="23.8035714285714" customWidth="1" min="3" max="3"/>
-    <col width="12.9375" customWidth="1" min="5" max="5"/>
-    <col width="51.6428571428571" customWidth="1" min="6" max="6"/>
-    <col width="40.625" customWidth="1" min="7" max="7"/>
-    <col width="55.1964285714286" customWidth="1" min="9" max="9"/>
+    <col customWidth="1" max="3" min="3" width="23.8035714285714"/>
+    <col customWidth="1" max="5" min="5" width="12.9375"/>
+    <col customWidth="1" max="6" min="6" width="51.6428571428571"/>
+    <col customWidth="1" max="7" min="7" width="40.625"/>
+    <col customWidth="1" max="9" min="9" width="55.1964285714286"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3960,7 +3960,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -3978,10 +3978,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9.142857142857141" defaultRowHeight="16.8"/>
   <cols>
-    <col width="29.0178571428571" customWidth="1" min="3" max="3"/>
-    <col width="19.6339285714286" customWidth="1" min="5" max="5"/>
-    <col width="122.026785714286" customWidth="1" min="6" max="6"/>
-    <col width="51.0446428571429" customWidth="1" min="7" max="7"/>
+    <col customWidth="1" max="3" min="3" width="29.0178571428571"/>
+    <col customWidth="1" max="5" min="5" width="19.6339285714286"/>
+    <col customWidth="1" max="6" min="6" width="122.026785714286"/>
+    <col customWidth="1" max="7" min="7" width="51.0446428571429"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="17" customHeight="1">
+    <row customHeight="1" ht="17" r="3">
       <c r="A3" t="n">
         <v>2</v>
       </c>
@@ -4438,6 +4438,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>